--- a/Mifos Automation Excels/Client/54RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/54RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -100,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -139,12 +139,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,10 +631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,54 +693,31 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="11">
         <v>42005</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="9">
         <v>10000</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
+      <c r="H2" s="3"/>
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3">
         <v>0</v>
       </c>
       <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -761,9 +732,7 @@
       <c r="D3" s="11">
         <v>42036</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="F3" s="3">
         <v>788.49</v>
       </c>
@@ -792,9 +761,6 @@
         <v>0</v>
       </c>
       <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -808,12 +774,8 @@
       <c r="C4" s="11">
         <v>42064</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>796.37</v>
       </c>
@@ -842,9 +804,6 @@
         <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
         <v>888.49</v>
       </c>
     </row>
@@ -858,12 +817,8 @@
       <c r="C5" s="11">
         <v>42095</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>796.37</v>
       </c>
@@ -892,9 +847,6 @@
         <v>0</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
         <v>888.49</v>
       </c>
     </row>
@@ -908,20 +860,16 @@
       <c r="C6" s="11">
         <v>42125</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <v>812.3</v>
-      </c>
-      <c r="G6" s="7">
-        <v>6806.47</v>
+        <v>811.77</v>
+      </c>
+      <c r="G6" s="9">
+        <v>6807</v>
       </c>
       <c r="H6" s="3">
-        <v>76.19</v>
+        <v>76.72</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -942,9 +890,6 @@
         <v>0</v>
       </c>
       <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
         <v>888.49</v>
       </c>
     </row>
@@ -958,20 +903,16 @@
       <c r="C7" s="11">
         <v>42156</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>820.43</v>
+        <v>820.42</v>
       </c>
       <c r="G7" s="7">
-        <v>5986.04</v>
+        <v>5986.58</v>
       </c>
       <c r="H7" s="3">
-        <v>68.06</v>
+        <v>68.069999999999993</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -992,9 +933,6 @@
         <v>0</v>
       </c>
       <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
         <v>888.49</v>
       </c>
     </row>
@@ -1008,20 +946,16 @@
       <c r="C8" s="11">
         <v>42186</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <v>828.63</v>
+        <v>828.62</v>
       </c>
       <c r="G8" s="7">
-        <v>5157.41</v>
+        <v>5157.96</v>
       </c>
       <c r="H8" s="3">
-        <v>59.86</v>
+        <v>59.87</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -1042,9 +976,6 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
         <v>888.49</v>
       </c>
     </row>
@@ -1058,20 +989,16 @@
       <c r="C9" s="11">
         <v>42217</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3">
-        <v>836.92</v>
+        <v>836.91</v>
       </c>
       <c r="G9" s="7">
-        <v>4320.49</v>
+        <v>4321.05</v>
       </c>
       <c r="H9" s="3">
-        <v>51.57</v>
+        <v>51.58</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -1092,9 +1019,6 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
         <v>888.49</v>
       </c>
     </row>
@@ -1108,20 +1032,16 @@
       <c r="C10" s="11">
         <v>42248</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3">
-        <v>845.29</v>
+        <v>845.28</v>
       </c>
       <c r="G10" s="7">
-        <v>3475.2</v>
+        <v>3475.77</v>
       </c>
       <c r="H10" s="3">
-        <v>43.2</v>
+        <v>43.21</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -1142,9 +1062,6 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
         <v>888.49</v>
       </c>
     </row>
@@ -1158,20 +1075,16 @@
       <c r="C11" s="11">
         <v>42278</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <v>853.74</v>
+        <v>853.73</v>
       </c>
       <c r="G11" s="7">
-        <v>2621.46</v>
+        <v>2622.04</v>
       </c>
       <c r="H11" s="3">
-        <v>34.75</v>
+        <v>34.76</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -1192,9 +1105,6 @@
         <v>0</v>
       </c>
       <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
         <v>888.49</v>
       </c>
     </row>
@@ -1208,20 +1118,16 @@
       <c r="C12" s="11">
         <v>42309</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <v>862.28</v>
+        <v>862.27</v>
       </c>
       <c r="G12" s="7">
-        <v>1759.18</v>
+        <v>1759.77</v>
       </c>
       <c r="H12" s="3">
-        <v>26.21</v>
+        <v>26.22</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1242,9 +1148,6 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
         <v>888.49</v>
       </c>
     </row>
@@ -1258,20 +1161,16 @@
       <c r="C13" s="11">
         <v>42339</v>
       </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <v>870.9</v>
+        <v>870.89</v>
       </c>
       <c r="G13" s="3">
-        <v>888.28</v>
+        <v>888.88</v>
       </c>
       <c r="H13" s="3">
-        <v>17.59</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -1292,9 +1191,6 @@
         <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
         <v>888.49</v>
       </c>
     </row>
@@ -1308,20 +1204,16 @@
       <c r="C14" s="11">
         <v>42370</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3">
-        <v>888.28</v>
+        <v>888.88</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>8.8800000000000008</v>
+        <v>8.89</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1330,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>897.16</v>
+        <v>897.77</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1342,33 +1234,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>897.16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="10"/>
+        <v>897.77</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C16:E16"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
